--- a/output/ejecucion_2/gridsearch_results/base0/b0_ci_results_gs_xgb_st.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base0/b0_ci_results_gs_xgb_st.xlsx
@@ -534,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>135.5420334339142</v>
+        <v>109.4120958805084</v>
       </c>
       <c r="C2">
-        <v>2.28832787038664</v>
+        <v>2.075103769611216</v>
       </c>
       <c r="D2">
-        <v>1.187069129943848</v>
+        <v>0.9311996459960937</v>
       </c>
       <c r="E2">
-        <v>0.1445127830544753</v>
+        <v>0.03385167935236814</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>0.806949806949807</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="K2">
-        <v>0.7915057915057915</v>
+        <v>0.7536231884057971</v>
       </c>
       <c r="L2">
-        <v>0.8255813953488372</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="M2">
-        <v>0.810077519379845</v>
+        <v>0.7971014492753623</v>
       </c>
       <c r="N2">
-        <v>0.7790697674418605</v>
+        <v>0.8106796116504854</v>
       </c>
       <c r="O2">
-        <v>0.8026368561252284</v>
+        <v>0.7998170817503869</v>
       </c>
       <c r="P2">
-        <v>0.01599828217803002</v>
+        <v>0.03349188197737363</v>
       </c>
       <c r="Q2">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -587,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>269.2817429542541</v>
+        <v>218.711506652832</v>
       </c>
       <c r="C3">
-        <v>0.9656453770942606</v>
+        <v>4.721050304847468</v>
       </c>
       <c r="D3">
-        <v>1.174598121643066</v>
+        <v>0.9865203857421875</v>
       </c>
       <c r="E3">
-        <v>0.1668042410713657</v>
+        <v>0.04102906847897542</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -611,28 +611,28 @@
         <v>17</v>
       </c>
       <c r="J3">
-        <v>0.8223938223938224</v>
+        <v>0.8454106280193237</v>
       </c>
       <c r="K3">
-        <v>0.803088803088803</v>
+        <v>0.748792270531401</v>
       </c>
       <c r="L3">
-        <v>0.8410852713178295</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="M3">
-        <v>0.8217054263565892</v>
+        <v>0.7971014492753623</v>
       </c>
       <c r="N3">
-        <v>0.7868217054263565</v>
+        <v>0.8203883495145631</v>
       </c>
       <c r="O3">
-        <v>0.8150190057166802</v>
+        <v>0.7988602785985648</v>
       </c>
       <c r="P3">
-        <v>0.01852546260037686</v>
+        <v>0.03287675692407679</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -640,16 +640,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>530.3194812774658</v>
+        <v>445.9277801513672</v>
       </c>
       <c r="C4">
-        <v>1.0103684402469</v>
+        <v>3.047555800167626</v>
       </c>
       <c r="D4">
-        <v>1.125901794433594</v>
+        <v>1.008610057830811</v>
       </c>
       <c r="E4">
-        <v>0.02787669732668493</v>
+        <v>0.03622302688370224</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -664,28 +664,28 @@
         <v>18</v>
       </c>
       <c r="J4">
-        <v>0.7992277992277992</v>
+        <v>0.8454106280193237</v>
       </c>
       <c r="K4">
-        <v>0.806949806949807</v>
+        <v>0.7536231884057971</v>
       </c>
       <c r="L4">
-        <v>0.8372093023255814</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="M4">
-        <v>0.8294573643410853</v>
+        <v>0.8019323671497585</v>
       </c>
       <c r="N4">
-        <v>0.7790697674418605</v>
+        <v>0.8252427184466019</v>
       </c>
       <c r="O4">
-        <v>0.8103828080572267</v>
+        <v>0.801763519534731</v>
       </c>
       <c r="P4">
-        <v>0.02097725302952645</v>
+        <v>0.03206484096109407</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,16 +693,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>136.4317759990692</v>
+        <v>116.4675260066986</v>
       </c>
       <c r="C5">
-        <v>0.5272373709944677</v>
+        <v>1.388248479870066</v>
       </c>
       <c r="D5">
-        <v>1.117298555374145</v>
+        <v>1.078215885162354</v>
       </c>
       <c r="E5">
-        <v>0.08344399630166688</v>
+        <v>0.1458360914246661</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -717,28 +717,28 @@
         <v>19</v>
       </c>
       <c r="J5">
-        <v>0.806949806949807</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="K5">
-        <v>0.7915057915057915</v>
+        <v>0.7536231884057971</v>
       </c>
       <c r="L5">
-        <v>0.8255813953488372</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="M5">
-        <v>0.810077519379845</v>
+        <v>0.7971014492753623</v>
       </c>
       <c r="N5">
-        <v>0.7790697674418605</v>
+        <v>0.8106796116504854</v>
       </c>
       <c r="O5">
-        <v>0.8026368561252284</v>
+        <v>0.7998170817503869</v>
       </c>
       <c r="P5">
-        <v>0.01599828217803002</v>
+        <v>0.03349188197737363</v>
       </c>
       <c r="Q5">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,16 +746,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>267.2869643688202</v>
+        <v>225.5756698131561</v>
       </c>
       <c r="C6">
-        <v>1.216384280367009</v>
+        <v>1.227104272048248</v>
       </c>
       <c r="D6">
-        <v>1.114551019668579</v>
+        <v>1.012839698791504</v>
       </c>
       <c r="E6">
-        <v>0.02594548857828797</v>
+        <v>0.02131754620670427</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -770,28 +770,28 @@
         <v>20</v>
       </c>
       <c r="J6">
-        <v>0.8223938223938224</v>
+        <v>0.8454106280193237</v>
       </c>
       <c r="K6">
-        <v>0.803088803088803</v>
+        <v>0.748792270531401</v>
       </c>
       <c r="L6">
-        <v>0.8410852713178295</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="M6">
-        <v>0.8217054263565892</v>
+        <v>0.7971014492753623</v>
       </c>
       <c r="N6">
-        <v>0.7868217054263565</v>
+        <v>0.8203883495145631</v>
       </c>
       <c r="O6">
-        <v>0.8150190057166802</v>
+        <v>0.7988602785985648</v>
       </c>
       <c r="P6">
-        <v>0.01852546260037686</v>
+        <v>0.03287675692407679</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -799,16 +799,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>529.8733343124389</v>
+        <v>446.1190069675446</v>
       </c>
       <c r="C7">
-        <v>0.7141356603692773</v>
+        <v>1.412375711578195</v>
       </c>
       <c r="D7">
-        <v>1.079017019271851</v>
+        <v>1.072241497039795</v>
       </c>
       <c r="E7">
-        <v>0.04694376039099019</v>
+        <v>0.09390612441359175</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -823,28 +823,28 @@
         <v>21</v>
       </c>
       <c r="J7">
-        <v>0.7992277992277992</v>
+        <v>0.8454106280193237</v>
       </c>
       <c r="K7">
-        <v>0.806949806949807</v>
+        <v>0.7536231884057971</v>
       </c>
       <c r="L7">
-        <v>0.8372093023255814</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="M7">
-        <v>0.8294573643410853</v>
+        <v>0.8019323671497585</v>
       </c>
       <c r="N7">
-        <v>0.7790697674418605</v>
+        <v>0.8252427184466019</v>
       </c>
       <c r="O7">
-        <v>0.8103828080572267</v>
+        <v>0.801763519534731</v>
       </c>
       <c r="P7">
-        <v>0.02097725302952645</v>
+        <v>0.03206484096109407</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,16 +852,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>136.2381071090698</v>
+        <v>114.7552185058594</v>
       </c>
       <c r="C8">
-        <v>0.5262265017095796</v>
+        <v>0.6005699031590791</v>
       </c>
       <c r="D8">
-        <v>1.177142810821533</v>
+        <v>1.185709571838379</v>
       </c>
       <c r="E8">
-        <v>0.1453965460136285</v>
+        <v>0.1955866029293977</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -876,28 +876,28 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <v>0.806949806949807</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="K8">
-        <v>0.7915057915057915</v>
+        <v>0.7536231884057971</v>
       </c>
       <c r="L8">
-        <v>0.8255813953488372</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="M8">
-        <v>0.810077519379845</v>
+        <v>0.7971014492753623</v>
       </c>
       <c r="N8">
-        <v>0.7790697674418605</v>
+        <v>0.8106796116504854</v>
       </c>
       <c r="O8">
-        <v>0.8026368561252284</v>
+        <v>0.7998170817503869</v>
       </c>
       <c r="P8">
-        <v>0.01599828217803002</v>
+        <v>0.03349188197737363</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -905,16 +905,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>268.0185400009156</v>
+        <v>225.1608543395996</v>
       </c>
       <c r="C9">
-        <v>1.361807027884721</v>
+        <v>2.563349509251708</v>
       </c>
       <c r="D9">
-        <v>1.091393661499023</v>
+        <v>1.112521696090698</v>
       </c>
       <c r="E9">
-        <v>0.01906889077339836</v>
+        <v>0.1745332125562456</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -929,28 +929,28 @@
         <v>23</v>
       </c>
       <c r="J9">
-        <v>0.8223938223938224</v>
+        <v>0.8454106280193237</v>
       </c>
       <c r="K9">
-        <v>0.803088803088803</v>
+        <v>0.748792270531401</v>
       </c>
       <c r="L9">
-        <v>0.8410852713178295</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="M9">
-        <v>0.8217054263565892</v>
+        <v>0.7971014492753623</v>
       </c>
       <c r="N9">
-        <v>0.7868217054263565</v>
+        <v>0.8203883495145631</v>
       </c>
       <c r="O9">
-        <v>0.8150190057166802</v>
+        <v>0.7988602785985648</v>
       </c>
       <c r="P9">
-        <v>0.01852546260037686</v>
+        <v>0.03287675692407679</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -958,16 +958,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>528.0335848808288</v>
+        <v>446.0811876296997</v>
       </c>
       <c r="C10">
-        <v>3.212531447350408</v>
+        <v>2.285915848026151</v>
       </c>
       <c r="D10">
-        <v>1.124116230010986</v>
+        <v>1.04566159248352</v>
       </c>
       <c r="E10">
-        <v>0.1383978310935325</v>
+        <v>0.1022878067581385</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -982,28 +982,28 @@
         <v>24</v>
       </c>
       <c r="J10">
-        <v>0.7992277992277992</v>
+        <v>0.8454106280193237</v>
       </c>
       <c r="K10">
-        <v>0.806949806949807</v>
+        <v>0.7536231884057971</v>
       </c>
       <c r="L10">
-        <v>0.8372093023255814</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="M10">
-        <v>0.8294573643410853</v>
+        <v>0.8019323671497585</v>
       </c>
       <c r="N10">
-        <v>0.7790697674418605</v>
+        <v>0.8252427184466019</v>
       </c>
       <c r="O10">
-        <v>0.8103828080572267</v>
+        <v>0.801763519534731</v>
       </c>
       <c r="P10">
-        <v>0.02097725302952645</v>
+        <v>0.03206484096109407</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1011,16 +1011,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>223.3386769771576</v>
+        <v>183.1310437202454</v>
       </c>
       <c r="C11">
-        <v>1.005322565136567</v>
+        <v>0.9778294508201462</v>
       </c>
       <c r="D11">
-        <v>1.080176877975464</v>
+        <v>1.027941989898682</v>
       </c>
       <c r="E11">
-        <v>0.01883069174150796</v>
+        <v>0.0532828136564896</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1035,28 +1035,28 @@
         <v>25</v>
       </c>
       <c r="J11">
-        <v>0.8185328185328186</v>
+        <v>0.8599033816425121</v>
       </c>
       <c r="K11">
-        <v>0.8108108108108109</v>
+        <v>0.7922705314009661</v>
       </c>
       <c r="L11">
-        <v>0.8410852713178295</v>
+        <v>0.7874396135265701</v>
       </c>
       <c r="M11">
-        <v>0.8217054263565892</v>
+        <v>0.8164251207729468</v>
       </c>
       <c r="N11">
-        <v>0.7984496124031008</v>
+        <v>0.8203883495145631</v>
       </c>
       <c r="O11">
-        <v>0.8181167878842297</v>
+        <v>0.8152853993715118</v>
       </c>
       <c r="P11">
-        <v>0.01400555412133525</v>
+        <v>0.02578051723295969</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1064,16 +1064,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>428.0589564800263</v>
+        <v>353.17311668396</v>
       </c>
       <c r="C12">
-        <v>2.065331573548886</v>
+        <v>2.326197653631079</v>
       </c>
       <c r="D12">
-        <v>1.054146909713745</v>
+        <v>1.083196449279785</v>
       </c>
       <c r="E12">
-        <v>0.02647228618587539</v>
+        <v>0.1312995649419392</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1088,28 +1088,28 @@
         <v>26</v>
       </c>
       <c r="J12">
-        <v>0.8223938223938224</v>
+        <v>0.8599033816425121</v>
       </c>
       <c r="K12">
-        <v>0.833976833976834</v>
+        <v>0.7632850241545893</v>
       </c>
       <c r="L12">
-        <v>0.8217054263565892</v>
+        <v>0.7874396135265701</v>
       </c>
       <c r="M12">
-        <v>0.8294573643410853</v>
+        <v>0.821256038647343</v>
       </c>
       <c r="N12">
-        <v>0.8023255813953488</v>
+        <v>0.8349514563106796</v>
       </c>
       <c r="O12">
-        <v>0.8219718056927359</v>
+        <v>0.8133671028563387</v>
       </c>
       <c r="P12">
-        <v>0.01082938112331298</v>
+        <v>0.03427592208899548</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1117,16 +1117,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>827.8584636211395</v>
+        <v>684.1472810745239</v>
       </c>
       <c r="C13">
-        <v>4.259736789795988</v>
+        <v>4.323668383046725</v>
       </c>
       <c r="D13">
-        <v>1.168789625167847</v>
+        <v>0.963016128540039</v>
       </c>
       <c r="E13">
-        <v>0.1168249076223673</v>
+        <v>0.01375185711530633</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1141,25 +1141,25 @@
         <v>27</v>
       </c>
       <c r="J13">
-        <v>0.8146718146718147</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="K13">
-        <v>0.8262548262548263</v>
+        <v>0.7536231884057971</v>
       </c>
       <c r="L13">
-        <v>0.8255813953488372</v>
+        <v>0.7922705314009661</v>
       </c>
       <c r="M13">
-        <v>0.8372093023255814</v>
+        <v>0.8309178743961353</v>
       </c>
       <c r="N13">
-        <v>0.810077519379845</v>
+        <v>0.8446601941747572</v>
       </c>
       <c r="O13">
-        <v>0.8227589715961809</v>
+        <v>0.8153088504291544</v>
       </c>
       <c r="P13">
-        <v>0.009541702901028983</v>
+        <v>0.037475786843105</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -1170,16 +1170,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>220.5655322551727</v>
+        <v>186.8704335212707</v>
       </c>
       <c r="C14">
-        <v>1.709385149111798</v>
+        <v>4.647602261651786</v>
       </c>
       <c r="D14">
-        <v>1.180908536911011</v>
+        <v>0.9684895515441895</v>
       </c>
       <c r="E14">
-        <v>0.1472457281111686</v>
+        <v>0.0159594481368628</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1194,28 +1194,28 @@
         <v>28</v>
       </c>
       <c r="J14">
-        <v>0.8185328185328186</v>
+        <v>0.8599033816425121</v>
       </c>
       <c r="K14">
-        <v>0.8108108108108109</v>
+        <v>0.7922705314009661</v>
       </c>
       <c r="L14">
-        <v>0.8410852713178295</v>
+        <v>0.7874396135265701</v>
       </c>
       <c r="M14">
-        <v>0.8217054263565892</v>
+        <v>0.8164251207729468</v>
       </c>
       <c r="N14">
-        <v>0.7984496124031008</v>
+        <v>0.8203883495145631</v>
       </c>
       <c r="O14">
-        <v>0.8181167878842297</v>
+        <v>0.8152853993715118</v>
       </c>
       <c r="P14">
-        <v>0.01400555412133525</v>
+        <v>0.02578051723295969</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1223,16 +1223,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>433.056894159317</v>
+        <v>355.2861651420593</v>
       </c>
       <c r="C15">
-        <v>4.30058109129339</v>
+        <v>1.286993147672724</v>
       </c>
       <c r="D15">
-        <v>1.123948049545288</v>
+        <v>0.9823958396911621</v>
       </c>
       <c r="E15">
-        <v>0.1267833256647886</v>
+        <v>0.02165022199349082</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1247,28 +1247,28 @@
         <v>29</v>
       </c>
       <c r="J15">
-        <v>0.8223938223938224</v>
+        <v>0.8599033816425121</v>
       </c>
       <c r="K15">
-        <v>0.833976833976834</v>
+        <v>0.7632850241545893</v>
       </c>
       <c r="L15">
-        <v>0.8217054263565892</v>
+        <v>0.7874396135265701</v>
       </c>
       <c r="M15">
-        <v>0.8294573643410853</v>
+        <v>0.821256038647343</v>
       </c>
       <c r="N15">
-        <v>0.8023255813953488</v>
+        <v>0.8349514563106796</v>
       </c>
       <c r="O15">
-        <v>0.8219718056927359</v>
+        <v>0.8133671028563387</v>
       </c>
       <c r="P15">
-        <v>0.01082938112331298</v>
+        <v>0.03427592208899548</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1276,16 +1276,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>825.2210113048553</v>
+        <v>676.345999956131</v>
       </c>
       <c r="C16">
-        <v>1.979813250021255</v>
+        <v>11.49383885528823</v>
       </c>
       <c r="D16">
-        <v>1.102588367462158</v>
+        <v>1.049323320388794</v>
       </c>
       <c r="E16">
-        <v>0.07954719878782336</v>
+        <v>0.1214148004774515</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1300,25 +1300,25 @@
         <v>30</v>
       </c>
       <c r="J16">
-        <v>0.8146718146718147</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="K16">
-        <v>0.8262548262548263</v>
+        <v>0.7536231884057971</v>
       </c>
       <c r="L16">
-        <v>0.8255813953488372</v>
+        <v>0.7922705314009661</v>
       </c>
       <c r="M16">
-        <v>0.8372093023255814</v>
+        <v>0.8309178743961353</v>
       </c>
       <c r="N16">
-        <v>0.810077519379845</v>
+        <v>0.8446601941747572</v>
       </c>
       <c r="O16">
-        <v>0.8227589715961809</v>
+        <v>0.8153088504291544</v>
       </c>
       <c r="P16">
-        <v>0.009541702901028983</v>
+        <v>0.037475786843105</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -1329,16 +1329,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>220.2410431861877</v>
+        <v>183.172395324707</v>
       </c>
       <c r="C17">
-        <v>1.091076716856102</v>
+        <v>1.72310380731037</v>
       </c>
       <c r="D17">
-        <v>1.169351387023926</v>
+        <v>1.027873516082764</v>
       </c>
       <c r="E17">
-        <v>0.100543153233135</v>
+        <v>0.1031245211889095</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1353,28 +1353,28 @@
         <v>31</v>
       </c>
       <c r="J17">
-        <v>0.8185328185328186</v>
+        <v>0.8599033816425121</v>
       </c>
       <c r="K17">
-        <v>0.8108108108108109</v>
+        <v>0.7922705314009661</v>
       </c>
       <c r="L17">
-        <v>0.8410852713178295</v>
+        <v>0.7874396135265701</v>
       </c>
       <c r="M17">
-        <v>0.8217054263565892</v>
+        <v>0.8164251207729468</v>
       </c>
       <c r="N17">
-        <v>0.7984496124031008</v>
+        <v>0.8203883495145631</v>
       </c>
       <c r="O17">
-        <v>0.8181167878842297</v>
+        <v>0.8152853993715118</v>
       </c>
       <c r="P17">
-        <v>0.01400555412133525</v>
+        <v>0.02578051723295969</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1382,16 +1382,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>424.5121440410614</v>
+        <v>361.0277002811432</v>
       </c>
       <c r="C18">
-        <v>8.120406717415594</v>
+        <v>6.55917342525869</v>
       </c>
       <c r="D18">
-        <v>1.1044593334198</v>
+        <v>0.9645584106445313</v>
       </c>
       <c r="E18">
-        <v>0.09949535087208726</v>
+        <v>0.0491071801438441</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1406,28 +1406,28 @@
         <v>32</v>
       </c>
       <c r="J18">
-        <v>0.8223938223938224</v>
+        <v>0.8599033816425121</v>
       </c>
       <c r="K18">
-        <v>0.833976833976834</v>
+        <v>0.7632850241545893</v>
       </c>
       <c r="L18">
-        <v>0.8217054263565892</v>
+        <v>0.7874396135265701</v>
       </c>
       <c r="M18">
-        <v>0.8294573643410853</v>
+        <v>0.821256038647343</v>
       </c>
       <c r="N18">
-        <v>0.8023255813953488</v>
+        <v>0.8349514563106796</v>
       </c>
       <c r="O18">
-        <v>0.8219718056927359</v>
+        <v>0.8133671028563387</v>
       </c>
       <c r="P18">
-        <v>0.01082938112331298</v>
+        <v>0.03427592208899548</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1435,16 +1435,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>665.8749306678772</v>
+        <v>543.0735139369965</v>
       </c>
       <c r="C19">
-        <v>30.96515094395094</v>
+        <v>26.98052568034204</v>
       </c>
       <c r="D19">
-        <v>0.69481520652771</v>
+        <v>0.5907190799713135</v>
       </c>
       <c r="E19">
-        <v>0.1374145835821343</v>
+        <v>0.09386576286604117</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -1459,25 +1459,25 @@
         <v>33</v>
       </c>
       <c r="J19">
-        <v>0.8146718146718147</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="K19">
-        <v>0.8262548262548263</v>
+        <v>0.7536231884057971</v>
       </c>
       <c r="L19">
-        <v>0.8255813953488372</v>
+        <v>0.7922705314009661</v>
       </c>
       <c r="M19">
-        <v>0.8372093023255814</v>
+        <v>0.8309178743961353</v>
       </c>
       <c r="N19">
-        <v>0.810077519379845</v>
+        <v>0.8446601941747572</v>
       </c>
       <c r="O19">
-        <v>0.8227589715961809</v>
+        <v>0.8153088504291544</v>
       </c>
       <c r="P19">
-        <v>0.009541702901028983</v>
+        <v>0.037475786843105</v>
       </c>
       <c r="Q19">
         <v>1</v>
